--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H2">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I2">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J2">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.50606098341804</v>
+        <v>0.04418433333333333</v>
       </c>
       <c r="N2">
-        <v>0.50606098341804</v>
+        <v>0.132553</v>
       </c>
       <c r="O2">
-        <v>0.3000786209598207</v>
+        <v>0.01996731490055206</v>
       </c>
       <c r="P2">
-        <v>0.3000786209598207</v>
+        <v>0.01996731490055207</v>
       </c>
       <c r="Q2">
-        <v>4.861147281282304</v>
+        <v>1.292546439351</v>
       </c>
       <c r="R2">
-        <v>4.861147281282304</v>
+        <v>11.632917954159</v>
       </c>
       <c r="S2">
-        <v>0.1944116526568259</v>
+        <v>0.01572692678646188</v>
       </c>
       <c r="T2">
-        <v>0.1944116526568259</v>
+        <v>0.01572692678646188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.605852734287311</v>
+        <v>29.253501</v>
       </c>
       <c r="H3">
-        <v>9.605852734287311</v>
+        <v>87.760503</v>
       </c>
       <c r="I3">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J3">
-        <v>0.6478690552328846</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.18036699935318</v>
+        <v>0.5088386666666667</v>
       </c>
       <c r="N3">
-        <v>1.18036699935318</v>
+        <v>1.526516</v>
       </c>
       <c r="O3">
-        <v>0.6999213790401793</v>
+        <v>0.2299489688858882</v>
       </c>
       <c r="P3">
-        <v>0.6999213790401793</v>
+        <v>0.2299489688858882</v>
       </c>
       <c r="Q3">
-        <v>11.33843156819925</v>
+        <v>14.885312444172</v>
       </c>
       <c r="R3">
-        <v>11.33843156819925</v>
+        <v>133.967811997548</v>
       </c>
       <c r="S3">
-        <v>0.4534574025760587</v>
+        <v>0.1811155188518</v>
       </c>
       <c r="T3">
-        <v>0.4534574025760587</v>
+        <v>0.1811155188518001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.2678596072411</v>
+        <v>29.253501</v>
       </c>
       <c r="H4">
-        <v>2.2678596072411</v>
+        <v>87.760503</v>
       </c>
       <c r="I4">
-        <v>0.1529563383685501</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J4">
-        <v>0.1529563383685501</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.50606098341804</v>
+        <v>0.007129666666666666</v>
       </c>
       <c r="N4">
-        <v>0.50606098341804</v>
+        <v>0.021389</v>
       </c>
       <c r="O4">
-        <v>0.3000786209598207</v>
+        <v>0.003221963278144652</v>
       </c>
       <c r="P4">
-        <v>0.3000786209598207</v>
+        <v>0.003221963278144652</v>
       </c>
       <c r="Q4">
-        <v>1.147675263094481</v>
+        <v>0.208567710963</v>
       </c>
       <c r="R4">
-        <v>1.147675263094481</v>
+        <v>1.877109398667</v>
       </c>
       <c r="S4">
-        <v>0.04589892708469823</v>
+        <v>0.00253772632106126</v>
       </c>
       <c r="T4">
-        <v>0.04589892708469823</v>
+        <v>0.00253772632106126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -717,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.2678596072411</v>
+        <v>29.253501</v>
       </c>
       <c r="H5">
-        <v>2.2678596072411</v>
+        <v>87.760503</v>
       </c>
       <c r="I5">
-        <v>0.1529563383685501</v>
+        <v>0.7876335333413836</v>
       </c>
       <c r="J5">
-        <v>0.1529563383685501</v>
+        <v>0.7876335333413838</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.18036699935318</v>
+        <v>1.652680333333334</v>
       </c>
       <c r="N5">
-        <v>1.18036699935318</v>
+        <v>4.958041000000001</v>
       </c>
       <c r="O5">
-        <v>0.6999213790401793</v>
+        <v>0.746861752935415</v>
       </c>
       <c r="P5">
-        <v>0.6999213790401793</v>
+        <v>0.7468617529354151</v>
       </c>
       <c r="Q5">
-        <v>2.676906639553459</v>
+        <v>48.34668578384701</v>
       </c>
       <c r="R5">
-        <v>2.676906639553459</v>
+        <v>435.120172054623</v>
       </c>
       <c r="S5">
-        <v>0.1070574112838519</v>
+        <v>0.5882533613820604</v>
       </c>
       <c r="T5">
-        <v>0.1070574112838519</v>
+        <v>0.5882533613820606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.9531306087563</v>
+        <v>4.749137666666667</v>
       </c>
       <c r="H6">
-        <v>2.9531306087563</v>
+        <v>14.247413</v>
       </c>
       <c r="I6">
-        <v>0.1991746063985653</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="J6">
-        <v>0.1991746063985653</v>
+        <v>0.1278677748937237</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.50606098341804</v>
+        <v>0.04418433333333333</v>
       </c>
       <c r="N6">
-        <v>0.50606098341804</v>
+        <v>0.132553</v>
       </c>
       <c r="O6">
-        <v>0.3000786209598207</v>
+        <v>0.01996731490055206</v>
       </c>
       <c r="P6">
-        <v>0.3000786209598207</v>
+        <v>0.01996731490055207</v>
       </c>
       <c r="Q6">
-        <v>1.494464180029128</v>
+        <v>0.2098374817098889</v>
       </c>
       <c r="R6">
-        <v>1.494464180029128</v>
+        <v>1.888537335389</v>
       </c>
       <c r="S6">
-        <v>0.05976804121829655</v>
+        <v>0.002553176126935886</v>
       </c>
       <c r="T6">
-        <v>0.05976804121829655</v>
+        <v>0.002553176126935887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.749137666666667</v>
+      </c>
+      <c r="H7">
+        <v>14.247413</v>
+      </c>
+      <c r="I7">
+        <v>0.1278677748937237</v>
+      </c>
+      <c r="J7">
+        <v>0.1278677748937237</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5088386666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.526516</v>
+      </c>
+      <c r="O7">
+        <v>0.2299489688858882</v>
+      </c>
+      <c r="P7">
+        <v>0.2299489688858882</v>
+      </c>
+      <c r="Q7">
+        <v>2.416544878123111</v>
+      </c>
+      <c r="R7">
+        <v>21.748903903108</v>
+      </c>
+      <c r="S7">
+        <v>0.02940306299054462</v>
+      </c>
+      <c r="T7">
+        <v>0.02940306299054463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.749137666666667</v>
+      </c>
+      <c r="H8">
+        <v>14.247413</v>
+      </c>
+      <c r="I8">
+        <v>0.1278677748937237</v>
+      </c>
+      <c r="J8">
+        <v>0.1278677748937237</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.007129666666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.021389</v>
+      </c>
+      <c r="O8">
+        <v>0.003221963278144652</v>
+      </c>
+      <c r="P8">
+        <v>0.003221963278144652</v>
+      </c>
+      <c r="Q8">
+        <v>0.03385976851744445</v>
+      </c>
+      <c r="R8">
+        <v>0.304737916657</v>
+      </c>
+      <c r="S8">
+        <v>0.0004119852751656445</v>
+      </c>
+      <c r="T8">
+        <v>0.0004119852751656446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.9531306087563</v>
-      </c>
-      <c r="H7">
-        <v>2.9531306087563</v>
-      </c>
-      <c r="I7">
-        <v>0.1991746063985653</v>
-      </c>
-      <c r="J7">
-        <v>0.1991746063985653</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.18036699935318</v>
-      </c>
-      <c r="N7">
-        <v>1.18036699935318</v>
-      </c>
-      <c r="O7">
-        <v>0.6999213790401793</v>
-      </c>
-      <c r="P7">
-        <v>0.6999213790401793</v>
-      </c>
-      <c r="Q7">
-        <v>3.485777915355703</v>
-      </c>
-      <c r="R7">
-        <v>3.485777915355703</v>
-      </c>
-      <c r="S7">
-        <v>0.1394065651802687</v>
-      </c>
-      <c r="T7">
-        <v>0.1394065651802687</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.749137666666667</v>
+      </c>
+      <c r="H9">
+        <v>14.247413</v>
+      </c>
+      <c r="I9">
+        <v>0.1278677748937237</v>
+      </c>
+      <c r="J9">
+        <v>0.1278677748937237</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.652680333333334</v>
+      </c>
+      <c r="N9">
+        <v>4.958041000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.746861752935415</v>
+      </c>
+      <c r="P9">
+        <v>0.7468617529354151</v>
+      </c>
+      <c r="Q9">
+        <v>7.848806421992557</v>
+      </c>
+      <c r="R9">
+        <v>70.63925779793301</v>
+      </c>
+      <c r="S9">
+        <v>0.09549955050107753</v>
+      </c>
+      <c r="T9">
+        <v>0.09549955050107757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.138366333333334</v>
+      </c>
+      <c r="H10">
+        <v>9.415099000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.08449869176489255</v>
+      </c>
+      <c r="J10">
+        <v>0.08449869176489258</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04418433333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.132553</v>
+      </c>
+      <c r="O10">
+        <v>0.01996731490055206</v>
+      </c>
+      <c r="P10">
+        <v>0.01996731490055207</v>
+      </c>
+      <c r="Q10">
+        <v>0.1386666241941111</v>
+      </c>
+      <c r="R10">
+        <v>1.247999617747</v>
+      </c>
+      <c r="S10">
+        <v>0.001687211987154295</v>
+      </c>
+      <c r="T10">
+        <v>0.001687211987154296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.138366333333334</v>
+      </c>
+      <c r="H11">
+        <v>9.415099000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.08449869176489255</v>
+      </c>
+      <c r="J11">
+        <v>0.08449869176489258</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5088386666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.526516</v>
+      </c>
+      <c r="O11">
+        <v>0.2299489688858882</v>
+      </c>
+      <c r="P11">
+        <v>0.2299489688858882</v>
+      </c>
+      <c r="Q11">
+        <v>1.596922140564889</v>
+      </c>
+      <c r="R11">
+        <v>14.372299265084</v>
+      </c>
+      <c r="S11">
+        <v>0.01943038704354353</v>
+      </c>
+      <c r="T11">
+        <v>0.01943038704354354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.138366333333334</v>
+      </c>
+      <c r="H12">
+        <v>9.415099000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.08449869176489255</v>
+      </c>
+      <c r="J12">
+        <v>0.08449869176489258</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.007129666666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.021389</v>
+      </c>
+      <c r="O12">
+        <v>0.003221963278144652</v>
+      </c>
+      <c r="P12">
+        <v>0.003221963278144652</v>
+      </c>
+      <c r="Q12">
+        <v>0.02237550583455556</v>
+      </c>
+      <c r="R12">
+        <v>0.201379552511</v>
+      </c>
+      <c r="S12">
+        <v>0.0002722516819177477</v>
+      </c>
+      <c r="T12">
+        <v>0.0002722516819177478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.138366333333334</v>
+      </c>
+      <c r="H13">
+        <v>9.415099000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.08449869176489255</v>
+      </c>
+      <c r="J13">
+        <v>0.08449869176489258</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.652680333333334</v>
+      </c>
+      <c r="N13">
+        <v>4.958041000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.746861752935415</v>
+      </c>
+      <c r="P13">
+        <v>0.7468617529354151</v>
+      </c>
+      <c r="Q13">
+        <v>5.186716317895446</v>
+      </c>
+      <c r="R13">
+        <v>46.68044686105901</v>
+      </c>
+      <c r="S13">
+        <v>0.06310884105227697</v>
+      </c>
+      <c r="T13">
+        <v>0.063108841052277</v>
       </c>
     </row>
   </sheetData>
